--- a/Vein_Template.xlsx
+++ b/Vein_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usradiology-my.sharepoint.com/personal/joshua_mcdonald_usradiology_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshua.mcdonald\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE237478-F768-4EBF-8188-158B55A4D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E31475B-203F-46E5-9724-DFD47CE33C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,42 +43,6 @@
     <t>ExamType</t>
   </si>
   <si>
-    <t>Jan24</t>
-  </si>
-  <si>
-    <t>Feb24</t>
-  </si>
-  <si>
-    <t>Mar24</t>
-  </si>
-  <si>
-    <t>Apr24</t>
-  </si>
-  <si>
-    <t>May24</t>
-  </si>
-  <si>
-    <t>Jun24</t>
-  </si>
-  <si>
-    <t>Jul24</t>
-  </si>
-  <si>
-    <t>Aug24</t>
-  </si>
-  <si>
-    <t>Sep24</t>
-  </si>
-  <si>
-    <t>Oct24</t>
-  </si>
-  <si>
-    <t>Nov24</t>
-  </si>
-  <si>
-    <t>Dec24</t>
-  </si>
-  <si>
     <t>New Patient Consults</t>
   </si>
   <si>
@@ -95,6 +59,42 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Jan25</t>
+  </si>
+  <si>
+    <t>Feb25</t>
+  </si>
+  <si>
+    <t>Mar25</t>
+  </si>
+  <si>
+    <t>Apr25</t>
+  </si>
+  <si>
+    <t>May25</t>
+  </si>
+  <si>
+    <t>Jun25</t>
+  </si>
+  <si>
+    <t>Jul25</t>
+  </si>
+  <si>
+    <t>Aug25</t>
+  </si>
+  <si>
+    <t>Sep25</t>
+  </si>
+  <si>
+    <t>Oct25</t>
+  </si>
+  <si>
+    <t>Nov25</t>
+  </si>
+  <si>
+    <t>Dec25</t>
   </si>
 </sst>
 </file>
@@ -487,48 +487,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>Huntersville!C2+Southpark!C2</f>
@@ -581,10 +581,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f>Huntersville!C3+Southpark!C3</f>
@@ -637,10 +637,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <f>Huntersville!C4+Southpark!C4</f>
@@ -693,10 +693,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f>Huntersville!C5+Southpark!C5</f>
@@ -749,10 +749,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f>Huntersville!C6+Southpark!C6</f>
@@ -805,10 +805,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f>Huntersville!C7+Southpark!C7</f>
@@ -886,88 +886,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -996,88 +996,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
